--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp7-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp7-Bmpr1a.xlsx
@@ -546,10 +546,10 @@
         <v>0.163767</v>
       </c>
       <c r="I2">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J2">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.470843666666667</v>
+        <v>2.535712666666667</v>
       </c>
       <c r="N2">
-        <v>10.412531</v>
+        <v>7.607138</v>
       </c>
       <c r="O2">
-        <v>0.05653984104486641</v>
+        <v>0.04494879354621957</v>
       </c>
       <c r="P2">
-        <v>0.0651263661336549</v>
+        <v>0.05070282964779482</v>
       </c>
       <c r="Q2">
-        <v>0.1894698849196667</v>
+        <v>0.1384220187606666</v>
       </c>
       <c r="R2">
-        <v>1.705228964277</v>
+        <v>1.245798168846</v>
       </c>
       <c r="S2">
-        <v>0.02535147526046508</v>
+        <v>0.03687183029880506</v>
       </c>
       <c r="T2">
-        <v>0.03578058924259184</v>
+        <v>0.04424188819941292</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.163767</v>
       </c>
       <c r="I3">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J3">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>96.72785300000001</v>
       </c>
       <c r="O3">
-        <v>0.5252303626496961</v>
+        <v>0.5715421877013505</v>
       </c>
       <c r="P3">
-        <v>0.6049954204026236</v>
+        <v>0.6447070965264385</v>
       </c>
       <c r="Q3">
         <v>1.760092255805667</v>
@@ -638,10 +638,10 @@
         <v>15.840830302251</v>
       </c>
       <c r="S3">
-        <v>0.2355041029243901</v>
+        <v>0.4688403156329966</v>
       </c>
       <c r="T3">
-        <v>0.3323860045661142</v>
+        <v>0.5625535987641144</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.163767</v>
       </c>
       <c r="I4">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J4">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9959919999999999</v>
+        <v>1.538811333333333</v>
       </c>
       <c r="N4">
-        <v>2.987976</v>
+        <v>4.616434</v>
       </c>
       <c r="O4">
-        <v>0.01622465163233374</v>
+        <v>0.02727742533206951</v>
       </c>
       <c r="P4">
-        <v>0.01868863765923709</v>
+        <v>0.03076929413956839</v>
       </c>
       <c r="Q4">
-        <v>0.05437020728799999</v>
+        <v>0.08400217187533333</v>
       </c>
       <c r="R4">
-        <v>0.4893318655919999</v>
+        <v>0.756019546878</v>
       </c>
       <c r="S4">
-        <v>0.007274849855703997</v>
+        <v>0.022375875267891</v>
       </c>
       <c r="T4">
-        <v>0.01026758450205071</v>
+        <v>0.02684843589112864</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.163767</v>
       </c>
       <c r="I5">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J5">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.2807625</v>
+        <v>19.206297</v>
       </c>
       <c r="N5">
-        <v>48.561525</v>
+        <v>38.412594</v>
       </c>
       <c r="O5">
-        <v>0.3955322060116276</v>
+        <v>0.3404565075487166</v>
       </c>
       <c r="P5">
-        <v>0.3037336126210463</v>
+        <v>0.2560262755732715</v>
       </c>
       <c r="Q5">
-        <v>1.3254625441125</v>
+        <v>1.048452546933</v>
       </c>
       <c r="R5">
-        <v>7.952775264675</v>
+        <v>6.290715281598</v>
       </c>
       <c r="S5">
-        <v>0.177349719244239</v>
+        <v>0.2792790101819299</v>
       </c>
       <c r="T5">
-        <v>0.1668720101787793</v>
+        <v>0.2234014538973053</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>0.163767</v>
       </c>
       <c r="I6">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J6">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3973579999999999</v>
+        <v>0.8899256666666666</v>
       </c>
       <c r="N6">
-        <v>1.192074</v>
+        <v>2.669777</v>
       </c>
       <c r="O6">
-        <v>0.006472938661476068</v>
+        <v>0.0157750858716439</v>
       </c>
       <c r="P6">
-        <v>0.007455963183438351</v>
+        <v>0.01779450411292666</v>
       </c>
       <c r="Q6">
-        <v>0.02169137586199999</v>
+        <v>0.04858015221766666</v>
       </c>
       <c r="R6">
-        <v>0.195222382758</v>
+        <v>0.437221369959</v>
       </c>
       <c r="S6">
-        <v>0.002902352417451976</v>
+        <v>0.01294042049449515</v>
       </c>
       <c r="T6">
-        <v>0.004096324912816435</v>
+        <v>0.01552699261553609</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H7">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I7">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J7">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.470843666666667</v>
+        <v>2.535712666666667</v>
       </c>
       <c r="N7">
-        <v>10.412531</v>
+        <v>7.607138</v>
       </c>
       <c r="O7">
-        <v>0.05653984104486641</v>
+        <v>0.04494879354621957</v>
       </c>
       <c r="P7">
-        <v>0.0651263661336549</v>
+        <v>0.05070282964779482</v>
       </c>
       <c r="Q7">
-        <v>0.2330931835441667</v>
+        <v>0.030322052068</v>
       </c>
       <c r="R7">
-        <v>1.398559101265</v>
+        <v>0.181932312408</v>
       </c>
       <c r="S7">
-        <v>0.03118836578440133</v>
+        <v>0.008076963247414514</v>
       </c>
       <c r="T7">
-        <v>0.02934577689106306</v>
+        <v>0.006460941448381903</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H8">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I8">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J8">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>96.72785300000001</v>
       </c>
       <c r="O8">
-        <v>0.5252303626496961</v>
+        <v>0.5715421877013505</v>
       </c>
       <c r="P8">
-        <v>0.6049954204026236</v>
+        <v>0.6447070965264385</v>
       </c>
       <c r="Q8">
-        <v>2.165333595949167</v>
+        <v>0.385557222058</v>
       </c>
       <c r="R8">
-        <v>12.992001575695</v>
+        <v>2.313343332348</v>
       </c>
       <c r="S8">
-        <v>0.2897262597253061</v>
+        <v>0.1027018720683539</v>
       </c>
       <c r="T8">
-        <v>0.2726094158365094</v>
+        <v>0.08215349776232427</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H9">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I9">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J9">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9959919999999999</v>
+        <v>1.538811333333333</v>
       </c>
       <c r="N9">
-        <v>2.987976</v>
+        <v>4.616434</v>
       </c>
       <c r="O9">
-        <v>0.01622465163233374</v>
+        <v>0.02727742533206951</v>
       </c>
       <c r="P9">
-        <v>0.01868863765923709</v>
+        <v>0.03076929413956839</v>
       </c>
       <c r="Q9">
-        <v>0.06688833274</v>
+        <v>0.018401105924</v>
       </c>
       <c r="R9">
-        <v>0.40132999644</v>
+        <v>0.110406635544</v>
       </c>
       <c r="S9">
-        <v>0.008949801776629747</v>
+        <v>0.004901550064178509</v>
       </c>
       <c r="T9">
-        <v>0.008421053157186376</v>
+        <v>0.00392085824843975</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H10">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I10">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J10">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.2807625</v>
+        <v>19.206297</v>
       </c>
       <c r="N10">
-        <v>48.561525</v>
+        <v>38.412594</v>
       </c>
       <c r="O10">
-        <v>0.3955322060116276</v>
+        <v>0.3404565075487166</v>
       </c>
       <c r="P10">
-        <v>0.3037336126210463</v>
+        <v>0.2560262755732715</v>
       </c>
       <c r="Q10">
-        <v>1.63063530759375</v>
+        <v>0.229668899526</v>
       </c>
       <c r="R10">
-        <v>6.522541230375001</v>
+        <v>0.9186755981039999</v>
       </c>
       <c r="S10">
-        <v>0.2181824867673887</v>
+        <v>0.06117749736678668</v>
       </c>
       <c r="T10">
-        <v>0.136861602442267</v>
+        <v>0.03262482167596618</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H11">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I11">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J11">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3973579999999999</v>
+        <v>0.8899256666666666</v>
       </c>
       <c r="N11">
-        <v>1.192074</v>
+        <v>2.669777</v>
       </c>
       <c r="O11">
-        <v>0.006472938661476068</v>
+        <v>0.0157750858716439</v>
       </c>
       <c r="P11">
-        <v>0.007455963183438351</v>
+        <v>0.01779450411292666</v>
       </c>
       <c r="Q11">
-        <v>0.026685569885</v>
+        <v>0.010641731122</v>
       </c>
       <c r="R11">
-        <v>0.16011341931</v>
+        <v>0.063850386732</v>
       </c>
       <c r="S11">
-        <v>0.003570586244024092</v>
+        <v>0.002834665377148749</v>
       </c>
       <c r="T11">
-        <v>0.003359638270621917</v>
+        <v>0.002267511497390568</v>
       </c>
     </row>
   </sheetData>
